--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna5-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna5-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Epha2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.666083666666667</v>
+        <v>0.05800433333333333</v>
       </c>
       <c r="H2">
-        <v>4.998251</v>
+        <v>0.174013</v>
       </c>
       <c r="I2">
-        <v>0.6125276070882968</v>
+        <v>0.02087975181349295</v>
       </c>
       <c r="J2">
-        <v>0.6125276070882968</v>
+        <v>0.02087975181349295</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.55727433333333</v>
+        <v>10.858287</v>
       </c>
       <c r="N2">
-        <v>34.671823</v>
+        <v>32.574861</v>
       </c>
       <c r="O2">
-        <v>0.5239815261112396</v>
+        <v>0.5084025289165609</v>
       </c>
       <c r="P2">
-        <v>0.5239815261112395</v>
+        <v>0.508402528916561</v>
       </c>
       <c r="Q2">
-        <v>19.25538599795255</v>
+        <v>0.6298276985769999</v>
       </c>
       <c r="R2">
-        <v>173.298473981573</v>
+        <v>5.668449287193</v>
       </c>
       <c r="S2">
-        <v>0.3209531503473915</v>
+        <v>0.01061531862512997</v>
       </c>
       <c r="T2">
-        <v>0.3209531503473914</v>
+        <v>0.01061531862512997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.666083666666667</v>
+        <v>0.05800433333333333</v>
       </c>
       <c r="H3">
-        <v>4.998251</v>
+        <v>0.174013</v>
       </c>
       <c r="I3">
-        <v>0.6125276070882968</v>
+        <v>0.02087975181349295</v>
       </c>
       <c r="J3">
-        <v>0.6125276070882968</v>
+        <v>0.02087975181349295</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.284314</v>
       </c>
       <c r="O3">
-        <v>0.004296724853919303</v>
+        <v>0.004437346842596906</v>
       </c>
       <c r="P3">
-        <v>0.004296724853919302</v>
+        <v>0.004437346842596906</v>
       </c>
       <c r="Q3">
-        <v>0.1578969705348889</v>
+        <v>0.00549714800911111</v>
       </c>
       <c r="R3">
-        <v>1.421072734814</v>
+        <v>0.04947433208199999</v>
       </c>
       <c r="S3">
-        <v>0.002631862593088002</v>
+        <v>9.265070078380999E-05</v>
       </c>
       <c r="T3">
-        <v>0.002631862593088002</v>
+        <v>9.265070078380999E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.666083666666667</v>
+        <v>0.05800433333333333</v>
       </c>
       <c r="H4">
-        <v>4.998251</v>
+        <v>0.174013</v>
       </c>
       <c r="I4">
-        <v>0.6125276070882968</v>
+        <v>0.02087975181349295</v>
       </c>
       <c r="J4">
-        <v>0.6125276070882968</v>
+        <v>0.02087975181349295</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>31.213797</v>
       </c>
       <c r="O4">
-        <v>0.471721749034841</v>
+        <v>0.4871601242408422</v>
       </c>
       <c r="P4">
-        <v>0.471721749034841</v>
+        <v>0.4871601242408422</v>
       </c>
       <c r="Q4">
-        <v>17.33493245211633</v>
+        <v>0.6035118285956667</v>
       </c>
       <c r="R4">
-        <v>156.014392069047</v>
+        <v>5.431606457361</v>
       </c>
       <c r="S4">
-        <v>0.2889425941478173</v>
+        <v>0.01017178248757918</v>
       </c>
       <c r="T4">
-        <v>0.2889425941478173</v>
+        <v>0.01017178248757918</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.053930333333333</v>
+        <v>1.666083666666667</v>
       </c>
       <c r="H5">
-        <v>3.161791</v>
+        <v>4.998251</v>
       </c>
       <c r="I5">
-        <v>0.3874723929117032</v>
+        <v>0.5997381826733804</v>
       </c>
       <c r="J5">
-        <v>0.3874723929117031</v>
+        <v>0.5997381826733805</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.55727433333333</v>
+        <v>10.858287</v>
       </c>
       <c r="N5">
-        <v>34.671823</v>
+        <v>32.574861</v>
       </c>
       <c r="O5">
-        <v>0.5239815261112396</v>
+        <v>0.5084025289165609</v>
       </c>
       <c r="P5">
-        <v>0.5239815261112395</v>
+        <v>0.508402528916561</v>
       </c>
       <c r="Q5">
-        <v>12.18056199055478</v>
+        <v>18.090814618679</v>
       </c>
       <c r="R5">
-        <v>109.625057914993</v>
+        <v>162.817331568111</v>
       </c>
       <c r="S5">
-        <v>0.2030283757638481</v>
+        <v>0.304908408758969</v>
       </c>
       <c r="T5">
-        <v>0.203028375763848</v>
+        <v>0.3049084087589691</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.053930333333333</v>
+        <v>1.666083666666667</v>
       </c>
       <c r="H6">
-        <v>3.161791</v>
+        <v>4.998251</v>
       </c>
       <c r="I6">
-        <v>0.3874723929117032</v>
+        <v>0.5997381826733804</v>
       </c>
       <c r="J6">
-        <v>0.3874723929117031</v>
+        <v>0.5997381826733805</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.284314</v>
       </c>
       <c r="O6">
-        <v>0.004296724853919303</v>
+        <v>0.004437346842596906</v>
       </c>
       <c r="P6">
-        <v>0.004296724853919302</v>
+        <v>0.004437346842596906</v>
       </c>
       <c r="Q6">
-        <v>0.09988238293044444</v>
+        <v>0.1578969705348889</v>
       </c>
       <c r="R6">
-        <v>0.8989414463739999</v>
+        <v>1.421072734814</v>
       </c>
       <c r="S6">
-        <v>0.001664862260831301</v>
+        <v>0.002661246331270531</v>
       </c>
       <c r="T6">
-        <v>0.0016648622608313</v>
+        <v>0.002661246331270532</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,14 +829,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.053930333333333</v>
+        <v>1.666083666666667</v>
       </c>
       <c r="H7">
-        <v>3.161791</v>
+        <v>4.998251</v>
       </c>
       <c r="I7">
-        <v>0.3874723929117032</v>
+        <v>0.5997381826733804</v>
       </c>
       <c r="J7">
-        <v>0.3874723929117031</v>
+        <v>0.5997381826733805</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,208 @@
         <v>31.213797</v>
       </c>
       <c r="O7">
-        <v>0.471721749034841</v>
+        <v>0.4871601242408422</v>
       </c>
       <c r="P7">
-        <v>0.471721749034841</v>
+        <v>0.4871601242408422</v>
       </c>
       <c r="Q7">
+        <v>17.33493245211633</v>
+      </c>
+      <c r="R7">
+        <v>156.014392069047</v>
+      </c>
+      <c r="S7">
+        <v>0.2921685275831409</v>
+      </c>
+      <c r="T7">
+        <v>0.292168527583141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.053930333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.161791</v>
+      </c>
+      <c r="I8">
+        <v>0.3793820655131266</v>
+      </c>
+      <c r="J8">
+        <v>0.3793820655131266</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.858287</v>
+      </c>
+      <c r="N8">
+        <v>32.574861</v>
+      </c>
+      <c r="O8">
+        <v>0.5084025289165609</v>
+      </c>
+      <c r="P8">
+        <v>0.508402528916561</v>
+      </c>
+      <c r="Q8">
+        <v>11.443878037339</v>
+      </c>
+      <c r="R8">
+        <v>102.994902336051</v>
+      </c>
+      <c r="S8">
+        <v>0.192878801532462</v>
+      </c>
+      <c r="T8">
+        <v>0.192878801532462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.053930333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.161791</v>
+      </c>
+      <c r="I9">
+        <v>0.3793820655131266</v>
+      </c>
+      <c r="J9">
+        <v>0.3793820655131266</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.09477133333333332</v>
+      </c>
+      <c r="N9">
+        <v>0.284314</v>
+      </c>
+      <c r="O9">
+        <v>0.004437346842596906</v>
+      </c>
+      <c r="P9">
+        <v>0.004437346842596906</v>
+      </c>
+      <c r="Q9">
+        <v>0.09988238293044444</v>
+      </c>
+      <c r="R9">
+        <v>0.8989414463739999</v>
+      </c>
+      <c r="S9">
+        <v>0.001683449810542565</v>
+      </c>
+      <c r="T9">
+        <v>0.001683449810542565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.053930333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.161791</v>
+      </c>
+      <c r="I10">
+        <v>0.3793820655131266</v>
+      </c>
+      <c r="J10">
+        <v>0.3793820655131266</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10.404599</v>
+      </c>
+      <c r="N10">
+        <v>31.213797</v>
+      </c>
+      <c r="O10">
+        <v>0.4871601242408422</v>
+      </c>
+      <c r="P10">
+        <v>0.4871601242408422</v>
+      </c>
+      <c r="Q10">
         <v>10.96572249226967</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>98.69150243042699</v>
       </c>
-      <c r="S7">
-        <v>0.1827791548870238</v>
-      </c>
-      <c r="T7">
-        <v>0.1827791548870237</v>
+      <c r="S10">
+        <v>0.1848198141701221</v>
+      </c>
+      <c r="T10">
+        <v>0.1848198141701221</v>
       </c>
     </row>
   </sheetData>
